--- a/test_data/cai/create_account_book_data.xlsx
+++ b/test_data/cai/create_account_book_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="-920" yWindow="-18920" windowWidth="24960" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="create_account_book_data" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,220 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
-  <si>
-    <t>帐套名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+  <si>
+    <t>红框提示</t>
+    <rPh sb="0" eb="1">
+      <t>hong kuang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <rPh sb="0" eb="1">
+      <t>cheng gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始记账月份不能小于成立日期！</t>
+  </si>
+  <si>
+    <t>必填项测试公司</t>
+    <rPh sb="0" eb="1">
+      <t>bi tian xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ce s</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则测试公司</t>
+    <rPh sb="0" eb="1">
+      <t>gui ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gogn si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市</t>
+    <rPh sb="0" eb="1">
+      <t>bei jign shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀区</t>
+    <rPh sb="0" eb="1">
+      <t>hai dian qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市辖区</t>
+    <rPh sb="0" eb="1">
+      <t>shi xia qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄彩艳</t>
+    <rPh sb="0" eb="1">
+      <t>huang cai yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+    <rPh sb="0" eb="1">
+      <t>hei long jiang sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绥化市</t>
+    <rPh sb="0" eb="1">
+      <t>sui hua shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇东市</t>
+    <rPh sb="0" eb="1">
+      <t>zhao dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序－注册资本为空</t>
+    <rPh sb="0" eb="1">
+      <t>you xu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi ben</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序－身份为空</t>
+    <rPh sb="0" eb="1">
+      <t>you xu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序－市为空</t>
+    <rPh sb="0" eb="1">
+      <t>you xu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序－区为空</t>
+    <rPh sb="0" eb="1">
+      <t>you xu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序－小规模</t>
+    <rPh sb="0" eb="1">
+      <t>you xu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao gui mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序－一般纳税人</t>
+    <rPh sb="0" eb="1">
+      <t>you xu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi ban na shui r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月</t>
+    <rPh sb="0" eb="1">
+      <t>yi yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小规模</t>
+  </si>
+  <si>
+    <t>小规模</t>
+    <rPh sb="0" eb="1">
+      <t>xiao gui mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般纳税人</t>
+  </si>
+  <si>
+    <t>IT、信息、软件、技术服务</t>
+  </si>
+  <si>
+    <t>建筑业</t>
+  </si>
+  <si>
+    <t>帐套名称0</t>
     <rPh sb="0" eb="1">
       <t>zhang tao</t>
     </rPh>
@@ -39,7 +250,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法定个代表人</t>
+    <t>法定个代表人1</t>
     <rPh sb="0" eb="1">
       <t>fa din</t>
     </rPh>
@@ -49,7 +260,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册资本</t>
+    <t>注册资本2</t>
     <rPh sb="0" eb="1">
       <t>zhu ce</t>
     </rPh>
@@ -59,42 +270,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>省</t>
+    <t>省3</t>
     <rPh sb="0" eb="1">
       <t>sheng fen</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市</t>
+    <t>市4</t>
     <rPh sb="0" eb="1">
       <t>shi qu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>区</t>
+    <t>区5</t>
     <rPh sb="0" eb="1">
       <t>qu yu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>税号</t>
+    <t>成立日期－年6</t>
+    <rPh sb="0" eb="1">
+      <t>cheng li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期－月7</t>
+    <rPh sb="0" eb="1">
+      <t>cheng li ri q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期－日8</t>
+    <rPh sb="0" eb="1">
+      <t>cheng li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税号9</t>
     <rPh sb="0" eb="1">
       <t>shui hao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行业</t>
+    <t>行业10</t>
     <rPh sb="0" eb="1">
       <t>hang ye</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帐套性质</t>
+    <t>帐套性质11</t>
     <rPh sb="0" eb="1">
       <t>zhang tao</t>
     </rPh>
@@ -104,7 +351,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启用帐套日期</t>
+    <t>启用帐套日期（一月）12</t>
     <rPh sb="0" eb="1">
       <t>qi yong</t>
     </rPh>
@@ -114,27 +361,51 @@
     <rPh sb="4" eb="5">
       <t>ri qi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
+    <rPh sb="7" eb="8">
+      <t>yi yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试场景13</t>
+    <rPh sb="0" eb="1">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果14</t>
     <rPh sb="0" eb="1">
       <t>jie guo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试场景</t>
-    <rPh sb="0" eb="1">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chang j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐套名称为空</t>
+    <t>五月</t>
+    <rPh sb="0" eb="1">
+      <t>wu yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市</t>
+    <rPh sb="0" eb="1">
+      <t>bei jing shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐套名称为空1</t>
     <rPh sb="0" eb="1">
       <t>zhang tao</t>
     </rPh>
@@ -150,7 +421,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法人为空</t>
+    <t>法人为空2</t>
     <rPh sb="0" eb="1">
       <t>fa ren</t>
     </rPh>
@@ -163,7 +434,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成立日期为空</t>
+    <t>成立日期为空3</t>
     <rPh sb="0" eb="1">
       <t>cheng li</t>
     </rPh>
@@ -179,7 +450,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>税号为空</t>
+    <t>税号为空4</t>
     <rPh sb="0" eb="1">
       <t>shui hao</t>
     </rPh>
@@ -192,7 +463,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行业为空</t>
+    <t>行业为空5</t>
     <rPh sb="0" eb="1">
       <t>hang ye</t>
     </rPh>
@@ -205,7 +476,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帐套性质为空</t>
+    <t>帐套性质为空6</t>
     <rPh sb="0" eb="1">
       <t>zhang tao</t>
     </rPh>
@@ -218,7 +489,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册资本为空</t>
+    <t>启用日期早于成立日期7</t>
+    <rPh sb="0" eb="1">
+      <t>qi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zao yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本为空8</t>
     <rPh sb="0" eb="1">
       <t>zhu ce</t>
     </rPh>
@@ -234,24 +524,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红框提示</t>
-    <rPh sb="0" eb="1">
-      <t>hong kuang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ti shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <rPh sb="0" eb="1">
-      <t>cheng gong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份为空</t>
+    <t>省份为空9</t>
     <rPh sb="0" eb="1">
       <t>sheng fen</t>
     </rPh>
@@ -264,7 +537,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市为空</t>
+    <t>市为空10</t>
     <rPh sb="0" eb="1">
       <t>shi qu</t>
     </rPh>
@@ -277,7 +550,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>区为空</t>
+    <t>区为空11</t>
     <rPh sb="0" eb="1">
       <t>qu</t>
     </rPh>
@@ -290,138 +563,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始记账月份不能小于成立日期！</t>
-  </si>
-  <si>
-    <t>启用日期早于成立日期</t>
-    <rPh sb="0" eb="1">
-      <t>qi yong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ri qi</t>
+    <t>创建一个小规模帐套12</t>
+    <rPh sb="0" eb="1">
+      <t>chaung jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi ge</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>zao yu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>cheng li</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ri qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填项测试公司</t>
-    <rPh sb="0" eb="1">
-      <t>bi tian xiang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ce s</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gong si</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则测试公司</t>
-    <rPh sb="0" eb="1">
-      <t>gui ze</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce shi</t>
+      <t>xiao gui mo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhang tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个一般纳税人帐套13</t>
+    <rPh sb="0" eb="1">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi ge</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>gogn si</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市</t>
-    <rPh sb="0" eb="1">
-      <t>bei jign shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海淀区</t>
-    <rPh sb="0" eb="1">
-      <t>hai dian qu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市辖区</t>
-    <rPh sb="0" eb="1">
-      <t>shi xia qu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄彩艳</t>
-    <rPh sb="0" eb="1">
-      <t>huang cai yan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江省</t>
-    <rPh sb="0" eb="1">
-      <t>hei long jiang sheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绥化市</t>
-    <rPh sb="0" eb="1">
-      <t>sui hua shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肇东市</t>
-    <rPh sb="0" eb="1">
-      <t>zhao dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi qu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成立日期－年</t>
-    <rPh sb="0" eb="1">
-      <t>cheng li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ri qi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>nian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成立日期－月</t>
-    <rPh sb="0" eb="1">
-      <t>cheng li ri q</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成立日期－日</t>
-    <rPh sb="0" eb="1">
-      <t>cheng li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ri qi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ri</t>
+      <t>yi ban na shui r</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhang tao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,7 +641,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,11 +688,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -795,260 +972,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="8" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="8" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>12.122999999999999</v>
+        <v>12.123100000000001</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
       </c>
       <c r="J2" s="2">
         <v>1224</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N2" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="2">
-        <v>922.26282000000003</v>
+        <v>13.123100000000001</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>1225</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N3" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14.123100000000001</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="2">
         <v>1226</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N4" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1227</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15.123100000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16.123100000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J6" s="2">
         <v>1228</v>
       </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N6" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17.123100000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J7" s="2">
         <v>1229</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N7" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>18.123100000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="J8" s="2">
         <v>1230</v>
       </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N8" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="G9" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
       <c r="J9" s="2">
         <v>1231</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N9" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20.123100000000001</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
       <c r="J10" s="2">
         <v>1232</v>
       </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N10" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>21.123100000000001</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
       <c r="J11" s="2">
         <v>1233</v>
       </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N11" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22.123100000000001</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
       <c r="J12" s="2">
         <v>1234</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N12" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>23.123100000000001</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
       <c r="J13" s="2">
         <v>1235</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>24.123100000000001</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1236</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K76">
+      <formula1>"IT、信息、软件、技术服务,批发、零售,文化、体育、娱乐、培训,交通、运输、仓储、物流、快递,物业管理、居民服务、修理服务,租赁服务,金融业,制造业,建筑业,农、林、牧、渔,社团、社保、公共组织,卫生和社会工作,卫生和社会工作,学历教育,房地产,电力、热力、燃气、水生产供应,水利、环境和公共设施,采矿业,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L41">
+      <formula1>"小规模,一般纳税人"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_data/cai/create_account_book_data.xlsx
+++ b/test_data/cai/create_account_book_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-920" yWindow="-18920" windowWidth="24960" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="-980" yWindow="-18960" windowWidth="24960" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="create_account_book_data" sheetId="1" r:id="rId1"/>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
